--- a/Participants.xlsx
+++ b/Participants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\PycharmProjects\TataElxzi02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F738E2-283E-40CF-8201-92D6D11469BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F93513D-7DE5-4F99-9B62-DF39C30C5CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{033BFA2F-D15A-4884-A12C-066936EA1FE1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{033BFA2F-D15A-4884-A12C-066936EA1FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="34">
   <si>
     <t>SL No</t>
   </si>
@@ -109,6 +109,33 @@
   </si>
   <si>
     <t>Kavi Priya</t>
+  </si>
+  <si>
+    <t>22nd Aug</t>
+  </si>
+  <si>
+    <t>23rd Aug</t>
+  </si>
+  <si>
+    <t>24th Aug</t>
+  </si>
+  <si>
+    <t>25th Aug</t>
+  </si>
+  <si>
+    <t>26th Aug</t>
+  </si>
+  <si>
+    <t>29th Aug</t>
+  </si>
+  <si>
+    <t>30th Aug</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>AB</t>
   </si>
 </sst>
 </file>
@@ -485,208 +512,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FAB5F-93F5-4EDA-BD6F-9862A90CD9D9}">
-  <dimension ref="B4:C27"/>
+  <dimension ref="B4:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BED407-41C9-4333-A1EF-CC56AC8ADFEA}">
   <dimension ref="C3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -715,11 +1248,11 @@
     <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <f ca="1">RANDBETWEEN(1, 23)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">VLOOKUP(C5,Sheet1!B4:C27,2,TRUE)</f>
-        <v>Swetha</v>
+        <v>Loga Priya</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.3">
